--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t xml:space="preserve">CODPRO</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">CERTIFICADOS_HTML</t>
   </si>
   <si>
-    <t xml:space="preserve">Categoria_do_produto_pesquisado</t>
+    <t xml:space="preserve">CATEGORIA_PRODUTO</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,20 +140,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,56 +355,56 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="34.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="73.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="34.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="73.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="8.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -416,11 +413,84 @@
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3"/>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">CODPRO</t>
   </si>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,8 +166,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -353,15 +374,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.41"/>
@@ -417,79 +438,33 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="3" t="n">
+        <v>6364025019</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>12</v>
+      <c r="A3" s="5" t="n">
+        <v>6364025019</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>6364025019</v>
       </c>
     </row>
   </sheetData>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">CODPRO</t>
   </si>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,12 +96,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +168,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +371,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -417,23 +411,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">DESCRICAO_TITULO</t>
   </si>
   <si>
-    <t xml:space="preserve">IMAGENS_BAIXADAS</t>
+    <t xml:space="preserve">CONTEUDO_DA_EMBALAGEM_HTML</t>
   </si>
   <si>
     <t xml:space="preserve">CONTEUDO_DA_EMBALAGEM</t>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,7 +154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,11 +171,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +382,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +391,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21"/>
@@ -404,7 +415,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -422,40 +433,34 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>6364025019</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>6364025019</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>6364025019</v>
-      </c>
+      <c r="A4" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t xml:space="preserve">CODPRO</t>
   </si>
@@ -50,6 +50,36 @@
   </si>
   <si>
     <t xml:space="preserve">CATEGORIA_PRODUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vonder.com.br/produto/luva_de_l_sinttica_para_polimento_vonder/4468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luva de lã sintética para polimento VONDER 63.64.025.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="descricaoProd"&gt;
+               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
+                            &lt;div class="arquivoItens"&gt; 
+                                       &lt;/div&gt;
+            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprimento: 250 mm
+Largura: 190 mm
+Material: Lã sintética (100% Poliester)
+Punho: Algodão
+Massa aproximada (peso): 0,1 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de braços e mãos</t>
   </si>
 </sst>
 </file>
@@ -59,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +119,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,36 +177,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,27 +401,27 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="296.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="296.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="132.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="296.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="109.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="34.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="73.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="8.95"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,7 +434,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -436,30 +455,69 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>6364025019</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="L3" s="7"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>6364025019</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
     </row>
   </sheetData>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -56,10 +56,16 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,6 +91,12 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -96,7 +108,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -109,10 +121,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -131,11 +143,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -404,23 +419,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.53" customWidth="1" style="8" min="1" max="1"/>
-    <col width="296.22" customWidth="1" style="8" min="2" max="2"/>
-    <col width="18.13" customWidth="1" style="8" min="3" max="3"/>
-    <col width="18.41" customWidth="1" style="8" min="4" max="4"/>
-    <col width="296.22" customWidth="1" style="8" min="5" max="6"/>
-    <col width="132.17" customWidth="1" style="8" min="7" max="7"/>
-    <col width="13.81" customWidth="1" style="8" min="8" max="8"/>
-    <col width="296.22" customWidth="1" style="8" min="9" max="9"/>
-    <col width="109.91" customWidth="1" style="8" min="10" max="10"/>
+    <col width="11.31" customWidth="1" style="8" min="1" max="1"/>
+    <col width="40" customWidth="1" style="8" min="2" max="10"/>
+    <col width="40" customWidth="1" style="9" min="3" max="3"/>
+    <col width="40" customWidth="1" style="9" min="4" max="4"/>
+    <col width="40" customWidth="1" style="9" min="5" max="5"/>
+    <col width="40" customWidth="1" style="9" min="6" max="6"/>
+    <col width="40" customWidth="1" style="9" min="7" max="7"/>
+    <col width="40" customWidth="1" style="9" min="8" max="8"/>
+    <col width="40" customWidth="1" style="9" min="9" max="9"/>
+    <col width="40" customWidth="1" style="9" min="10" max="10"/>
     <col width="19.66" customWidth="1" style="8" min="11" max="11"/>
     <col width="34.36" customWidth="1" style="8" min="12" max="12"/>
     <col width="73.36" customWidth="1" style="8" min="13" max="13"/>
@@ -450,12 +466,12 @@
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
+          <t>CONTEUDO_DA_EMBALAGEM</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
           <t>CONTEUDO_DA_EMBALAGEM_HTML</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>CONTEUDO_DA_EMBALAGEM</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
@@ -481,37 +497,37 @@
       <c r="N1" s="10" t="n"/>
       <c r="O1" s="10" t="n"/>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
+    <row r="2" ht="300" customHeight="1" s="9">
       <c r="A2" s="11" t="n">
-        <v>6364025019</v>
+        <v>7074000630</v>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
+          <t>Conteúdo da Embalagem:  1 Escudo para solda. Acompanha lente incolor.  Proteção facial, com visor fixo.  Certificados:   3702  Indicada para proteção facial em processos de solda em geral.  Garantia legal: 90 dias</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>https://www.vonder.com.br/produto/luva_de_l_sinttica_para_polimento_vonder/4468</t>
+          <t>https://www.vonder.com.br/produto/escudo_para_solda_em_celeron_vd_630_vonder/7410</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr">
         <is>
-          <t>Luva de lã sintética para polimento VONDER 63.64.025.019</t>
+          <t>Escudo para solda em celeron VD 630, VONDER 70.74.000.630</t>
         </is>
       </c>
       <c r="E2" s="12" t="inlineStr">
         <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
+          <t>Conteúdo da Embalagem:  1 Escudo para solda. Acompanha lente incolor.  Proteção facial, com visor fixo.  Certificados:   3702  Indicada para proteção facial em processos de solda em geral.  Garantia legal: 90 dias</t>
         </is>
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
           <t>&lt;div class="descricaoProd"&gt;
                &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Escudo para solda. Acompanha lente incolor.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Proteção facial, com visor fixo.&lt;br&gt;&lt;br&gt;&lt;b&gt;Certificados: &lt;/b&gt;&lt;br&gt;&lt;br&gt;3702&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para proteção facial em processos de solda em geral.&lt;/p&gt;&lt;br&gt;
                       &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
                             &lt;div class="arquivoItens"&gt; 
                                        &lt;/div&gt;
@@ -520,21 +536,26 @@
       </c>
       <c r="G2" s="12" t="inlineStr">
         <is>
-          <t>Comprimento: 250 mm
-Largura: 190 mm
-Material: Lã sintética (100% Poliester)
-Punho: Algodão
-Massa aproximada (peso): 0,1 kg</t>
-        </is>
-      </c>
-      <c r="H2" s="12" t="inlineStr"/>
+          <t>Modelo: VD630
+Tipo: Escudo
+Material: Celeron
+Tipo de visor: Fixo
+Tipo da carneira da máscara para solda: Sem carneira
+Massa aproximada (peso): 0,43 kg</t>
+        </is>
+      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>Certificados:   3702  Indicada para proteção facial em processos de solda em geral.  Garantia legal: 90 dias</t>
+        </is>
+      </c>
       <c r="I2" s="12" t="inlineStr">
         <is>
           <t>&lt;div class="descricaoProd"&gt;
                &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Escudo para solda. Acompanha lente incolor.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Proteção facial, com visor fixo.&lt;br&gt;&lt;br&gt;&lt;b&gt;Certificados: &lt;/b&gt;&lt;br&gt;&lt;br&gt;3702&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para proteção facial em processos de solda em geral.&lt;/p&gt;&lt;br&gt;
                       &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
                             &lt;div class="arquivoItens"&gt; 
                                        &lt;/div&gt;
@@ -543,206 +564,29 @@
       </c>
       <c r="J2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de braços e mãos</t>
-        </is>
-      </c>
-      <c r="K2" s="12" t="n"/>
-      <c r="L2" s="12" t="n"/>
+          <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de olhos e face</t>
+        </is>
+      </c>
+      <c r="K2" s="13" t="n"/>
+      <c r="L2" s="13" t="n"/>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="13" t="n">
-        <v>7074000630</v>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>https://www.vonder.com.br/produto/luva_de_l_sinttica_para_polimento_vonder/4468</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Luva de lã sintética para polimento VONDER 63.64.025.019</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>&lt;div class="descricaoProd"&gt;
-               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
-                            &lt;div class="arquivoItens"&gt; 
-                                       &lt;/div&gt;
-            &lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>Comprimento: 250 mm
-Largura: 190 mm
-Material: Lã sintética (100% Poliester)
-Punho: Algodão
-Massa aproximada (peso): 0,1 kg</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr"/>
-      <c r="I3" s="14" t="inlineStr">
-        <is>
-          <t>&lt;div class="descricaoProd"&gt;
-               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
-                            &lt;div class="arquivoItens"&gt; 
-                                       &lt;/div&gt;
-            &lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de braços e mãos</t>
-        </is>
-      </c>
-      <c r="L3" s="14" t="n"/>
+    <row r="3" ht="300" customHeight="1" s="9">
+      <c r="A3" s="11" t="n"/>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="14" t="n"/>
+      <c r="L3" s="15" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="15" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>https://www.vonder.com.br/produto/luva_de_l_sinttica_para_polimento_vonder/4468</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Luva de lã sintética para polimento VONDER 63.64.025.019</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>&lt;div class="descricaoProd"&gt;
-               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
-                            &lt;div class="arquivoItens"&gt; 
-                                       &lt;/div&gt;
-            &lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>Comprimento: 250 mm
-Largura: 190 mm
-Material: Lã sintética (100% Poliester)
-Punho: Algodão
-Massa aproximada (peso): 0,1 kg</t>
-        </is>
-      </c>
-      <c r="H4" s="8" t="inlineStr"/>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>&lt;div class="descricaoProd"&gt;
-               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
-                            &lt;div class="arquivoItens"&gt; 
-                                       &lt;/div&gt;
-            &lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de braços e mãos</t>
-        </is>
-      </c>
+      <c r="A4" s="16" t="n"/>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.vonder.com.br/produto/luva_de_l_sinttica_para_polimento_vonder/4468</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Luva de lã sintética para polimento VONDER 63.64.025.019</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Conteúdo da Embalagem:  1 Luva de lã sintética.  Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.  Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.  Garantia legal: 90 dias</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>&lt;div class="descricaoProd"&gt;
-               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
-                            &lt;div class="arquivoItens"&gt; 
-                                       &lt;/div&gt;
-            &lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Comprimento: 250 mm
-Largura: 190 mm
-Material: Lã sintética (100% Poliester)
-Punho: Algodão
-Massa aproximada (peso): 0,1 kg</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>&lt;div class="descricaoProd"&gt;
-               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Luva de lã sintética.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Resistente e prática, não risca e nem danifica a lataria do veículo. Contém punho de algodão para melhor fixação na mão do operador.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicada para polimento de superfícies, proporcionando ótimo acabamento e brilho. Ideal para uso automotivo. Atenção: o produto não risca a superfície, mas pode reter resíduos que riscam. Certifique-se de que a luva esteja limpa e livre de resíduos antes de usá-la.&lt;/p&gt;&lt;br&gt;
-                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
-                            &lt;div class="arquivoItens"&gt; 
-                                       &lt;/div&gt;
-            &lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de braços e mãos</t>
-        </is>
-      </c>
-    </row>
+    <row r="5" ht="135.75" customHeight="1" s="9"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -108,7 +108,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -119,12 +119,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -141,7 +144,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
@@ -149,14 +152,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -419,109 +428,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.31" customWidth="1" style="8" min="1" max="1"/>
-    <col width="40" customWidth="1" style="8" min="2" max="10"/>
-    <col width="40" customWidth="1" style="9" min="3" max="3"/>
-    <col width="40" customWidth="1" style="9" min="4" max="4"/>
-    <col width="40" customWidth="1" style="9" min="5" max="5"/>
-    <col width="40" customWidth="1" style="9" min="6" max="6"/>
-    <col width="40" customWidth="1" style="9" min="7" max="7"/>
-    <col width="40" customWidth="1" style="9" min="8" max="8"/>
-    <col width="40" customWidth="1" style="9" min="9" max="9"/>
-    <col width="40" customWidth="1" style="9" min="10" max="10"/>
-    <col width="19.66" customWidth="1" style="8" min="11" max="11"/>
-    <col width="34.36" customWidth="1" style="8" min="12" max="12"/>
-    <col width="73.36" customWidth="1" style="8" min="13" max="13"/>
-    <col width="8.949999999999999" customWidth="1" style="8" min="14" max="15"/>
+    <col width="11.31" customWidth="1" style="9" min="1" max="1"/>
+    <col width="40" customWidth="1" style="9" min="2" max="10"/>
+    <col width="40" customWidth="1" style="10" min="3" max="3"/>
+    <col width="40" customWidth="1" style="10" min="4" max="4"/>
+    <col width="40" customWidth="1" style="10" min="5" max="5"/>
+    <col width="40" customWidth="1" style="10" min="6" max="6"/>
+    <col width="40" customWidth="1" style="10" min="7" max="7"/>
+    <col width="40" customWidth="1" style="10" min="8" max="8"/>
+    <col width="40" customWidth="1" style="10" min="9" max="9"/>
+    <col width="40" customWidth="1" style="10" min="10" max="10"/>
+    <col width="19.66" customWidth="1" style="9" min="11" max="11"/>
+    <col width="34.36" customWidth="1" style="9" min="12" max="12"/>
+    <col width="73.36" customWidth="1" style="9" min="13" max="13"/>
+    <col width="8.949999999999999" customWidth="1" style="9" min="14" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>CODPRO</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>DESCRICAO</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>LINK_FORNECEDOR</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>DESCRICAO_TITULO</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>CONTEUDO_DA_EMBALAGEM</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>CONTEUDO_DA_EMBALAGEM_HTML</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>DETALHES_TECNICOS</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>CERTIFICADOS</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="11" t="inlineStr">
         <is>
           <t>CERTIFICADOS_HTML</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>CATEGORIA_PRODUTO</t>
         </is>
       </c>
-      <c r="N1" s="10" t="n"/>
-      <c r="O1" s="10" t="n"/>
+      <c r="N1" s="11" t="n"/>
+      <c r="O1" s="11" t="n"/>
     </row>
-    <row r="2" ht="300" customHeight="1" s="9">
-      <c r="A2" s="11" t="n">
-        <v>7074000630</v>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
+    <row r="2" ht="300" customHeight="1" s="10">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+7074000630
+</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Conteúdo da Embalagem:  1 Escudo para solda. Acompanha lente incolor.  Proteção facial, com visor fixo.  Certificados:   3702  Indicada para proteção facial em processos de solda em geral.  Garantia legal: 90 dias</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>https://www.vonder.com.br/produto/escudo_para_solda_em_celeron_vd_630_vonder/7410</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>Escudo para solda em celeron VD 630, VONDER 70.74.000.630</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>Conteúdo da Embalagem:  1 Escudo para solda. Acompanha lente incolor.  Proteção facial, com visor fixo.  Certificados:   3702  Indicada para proteção facial em processos de solda em geral.  Garantia legal: 90 dias</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>&lt;div class="descricaoProd"&gt;
                &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
@@ -534,7 +547,7 @@
             &lt;/div&gt;</t>
         </is>
       </c>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>Modelo: VD630
 Tipo: Escudo
@@ -544,12 +557,12 @@
 Massa aproximada (peso): 0,43 kg</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t>Certificados:   3702  Indicada para proteção facial em processos de solda em geral.  Garantia legal: 90 dias</t>
         </is>
       </c>
-      <c r="I2" s="12" t="inlineStr">
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>&lt;div class="descricaoProd"&gt;
                &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
@@ -562,31 +575,112 @@
             &lt;/div&gt;</t>
         </is>
       </c>
-      <c r="J2" s="12" t="inlineStr">
+      <c r="J2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve"> Equipamentos de proteção individual, coletiva, sinalização e segurança| Equipamentos para proteção de olhos e face</t>
         </is>
       </c>
-      <c r="K2" s="13" t="n"/>
-      <c r="L2" s="13" t="n"/>
+      <c r="K2" s="14" t="n"/>
+      <c r="L2" s="14" t="n"/>
     </row>
-    <row r="3" ht="300" customHeight="1" s="9">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="14" t="n"/>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="n"/>
-      <c r="F3" s="14" t="n"/>
-      <c r="G3" s="14" t="n"/>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="14" t="n"/>
-      <c r="L3" s="15" t="n"/>
+    <row r="3" ht="300" customHeight="1" s="10">
+      <c r="A3" s="15" t="n">
+        <v>6220111211</v>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>Conteúdo da Embalagem:  1 Bico leque.  Fabricado em aço inox, proporcionando resistência à oxidação/corrosão.  Indicado para as Máquinas de Pintura Airless VONDER, modelos MPA 120, MPA 1010, MPA 300, MPA 350B e MPA 540B. Para a abertura do leque e espessura indicada, utilizar a uma distância entre 350 mm a 400 mm da superfície a ser pintada.  Garantia legal: 90 dias  Guia rápido dos bicos para Airless</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>https://www.vonder.com.br/produto/bico_leque_211_abertura_de_10_cm_a_15_cm_espessura_028_mm_para_mquina_airless_vonder/250</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>Bico leque 211, abertura de 10 cm a 15 cm, espessura 0,28 mm, para máquina Airless VONDER 62.20.111.211</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>Conteúdo da Embalagem:  1 Bico leque.  Fabricado em aço inox, proporcionando resistência à oxidação/corrosão.  Indicado para as Máquinas de Pintura Airless VONDER, modelos MPA 120, MPA 1010, MPA 300, MPA 350B e MPA 540B. Para a abertura do leque e espessura indicada, utilizar a uma distância entre 350 mm a 400 mm da superfície a ser pintada.  Garantia legal: 90 dias  Guia rápido dos bicos para Airless</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr">
+        <is>
+          <t>&lt;div class="descricaoProd"&gt;
+               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Bico leque.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Fabricado em aço inox, proporcionando resistência à oxidação/corrosão.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicado para as Máquinas de Pintura Airless VONDER, modelos MPA 120, MPA 1010, MPA 300, MPA 350B e MPA 540B. Para a abertura do leque e espessura indicada, utilizar a uma distância entre 350 mm a 400 mm da superfície a ser pintada.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
+                            &lt;div class="arquivoItens"&gt; 
+                            &lt;div class="itensPdf a"&gt;
+                                &lt;a href="https://www.vonder.com.br/estatico/vonder/documentos/6220111211/Guia r&amp;amp;aacute;pido dos bicos para Airless.pdf" target="_blank"&gt;Guia rápido dos bicos para Airless&lt;/a&gt;
+                            &lt;/div&gt;
+                                            &lt;/div&gt;
+            &lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t>Número: 211
+Modelo da pistola: Pistolas MPA 120, MPA 1010, MPA 300, MPA 350B e MPA 540B
+Diâmetro do bico: 0,28 mm (0,011")
+Abertura do leque: 10 cm a 15 cm
+Pressão máxima indicada: 3.300 lbf/pol²
+Material: Aço inox
+Massa aproximada (peso): 0,038 kg</t>
+        </is>
+      </c>
+      <c r="H3" s="13" t="inlineStr"/>
+      <c r="I3" s="13" t="inlineStr">
+        <is>
+          <t>&lt;div class="descricaoProd"&gt;
+               &lt;b&gt;Conteúdo da Embalagem:&lt;/b&gt; &lt;br&gt;                     
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;1 Bico leque.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Fabricado em aço inox, proporcionando resistência à oxidação/corrosão.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Indicado para as Máquinas de Pintura Airless VONDER, modelos MPA 120, MPA 1010, MPA 300, MPA 350B e MPA 540B. Para a abertura do leque e espessura indicada, utilizar a uma distância entre 350 mm a 400 mm da superfície a ser pintada.&lt;/p&gt;&lt;br&gt;
+                      &lt;p style="margin-left: 5px; padding-bottom: 10px;"&gt;Garantia legal: 90 dias&lt;/p&gt;&lt;br&gt;
+                            &lt;div class="arquivoItens"&gt; 
+                            &lt;div class="itensPdf a"&gt;
+                                &lt;a href="https://www.vonder.com.br/estatico/vonder/documentos/6220111211/Guia r&amp;amp;aacute;pido dos bicos para Airless.pdf" target="_blank"&gt;Guia rápido dos bicos para Airless&lt;/a&gt;
+                            &lt;/div&gt;
+                                            &lt;/div&gt;
+            &lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J3" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Abrasivos, polimento e pintura industrial| Acessório para equipamentos de pintura air-less</t>
+        </is>
+      </c>
+      <c r="L3" s="17" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="16" t="n"/>
+    <row r="4" ht="300" customHeight="1" s="10">
+      <c r="A4" s="18" t="n"/>
+      <c r="B4" s="19" t="n"/>
+      <c r="C4" s="19" t="n"/>
+      <c r="D4" s="19" t="n"/>
+      <c r="E4" s="19" t="n"/>
+      <c r="F4" s="19" t="n"/>
+      <c r="G4" s="19" t="n"/>
+      <c r="H4" s="19" t="n"/>
+      <c r="I4" s="19" t="n"/>
+      <c r="J4" s="19" t="n"/>
     </row>
-    <row r="5" ht="135.75" customHeight="1" s="9"/>
+    <row r="5" ht="300" customHeight="1" s="10">
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="19" t="n"/>
+      <c r="H5" s="19" t="n"/>
+      <c r="I5" s="19" t="n"/>
+      <c r="J5" s="19" t="n"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/planilha_produtos.xlsx
+++ b/docs/planilha_produtos.xlsx
@@ -430,8 +430,8 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="B2:J3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
